--- a/data/trans_dic/P43_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P43_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con grado de capacidad laboral autopercibida &lt;=7</t>
+          <t>Población con grado de capacidad laboral autopercibida &lt;=7 (tasa de respuesta: 99,57%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>12,48%</t>
+          <t>6,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7,4%</t>
+          <t>5,5%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>8,46%</t>
+          <t>6,19%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>17,58%</t>
+          <t>10,27%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>20,48%</t>
+          <t>6,71%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>20,47%</t>
+          <t>9,89%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>14,89%</t>
+          <t>9,28%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>13,98%</t>
+          <t>8,79%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>13,94%</t>
+          <t>6,38%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>7,85%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>7,79%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>9,5%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>8,29; 18,04</t>
+          <t>3,06; 11,28</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,13; 12,56</t>
+          <t>2,62; 10,49</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,66; 13,98</t>
+          <t>2,95; 11,71</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>11,51; 24,39</t>
+          <t>6,06; 15,69</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>14,6; 27,19</t>
+          <t>3,85; 11,08</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>15,03; 26,62</t>
+          <t>6,28; 14,79</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>11,5; 19,3</t>
+          <t>5,78; 14,01</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>10,78; 18,25</t>
+          <t>5,56; 13,63</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>10,33; 17,93</t>
+          <t>4,21; 9,37</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>5,35; 10,83</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>5,07; 10,62</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>6,91; 13,18</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>8,87%</t>
+          <t>6,85%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>11,98%</t>
+          <t>7,64%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>10,99%</t>
+          <t>7,02%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>14,25%</t>
+          <t>9,17%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>17,39%</t>
+          <t>5,32%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>14,75%</t>
+          <t>8,26%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>11,35%</t>
+          <t>6,7%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>14,26%</t>
+          <t>8,02%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>12,5%</t>
+          <t>6,01%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>7,96%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>6,85%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>8,6%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,77; 15,02</t>
+          <t>3,41; 11,9</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,1; 18,84</t>
+          <t>3,92; 12,54</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,24; 17,26</t>
+          <t>3,61; 11,92</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,69; 21,84</t>
+          <t>5,37; 14,82</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>11,03; 24,55</t>
+          <t>2,62; 9,21</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>9,11; 23,07</t>
+          <t>4,8; 13,23</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>7,79; 15,87</t>
+          <t>3,56; 11,08</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>10,46; 19,72</t>
+          <t>4,33; 14,11</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>8,73; 16,92</t>
+          <t>3,79; 9,05</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>5,36; 11,19</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>4,6; 10,18</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>5,84; 13,04</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>11,59%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>13,79%</t>
+          <t>2,73%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>11,09%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>21,91%</t>
+          <t>33,93%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>20,36%</t>
+          <t>11,8%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>20,47%</t>
+          <t>8,29%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>16,01%</t>
+          <t>8,54%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>16,56%</t>
+          <t>15,89%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>15,15%</t>
+          <t>6,08%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>5,54%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>4,2%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>25,09%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,01; 31,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,01; 29,98</t>
+          <t>0,0; 15,18</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,89; 27,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>9,12; 44,13</t>
+          <t>6,95; 74,01</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,57; 37,67</t>
+          <t>3,17; 26,16</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,53; 38,12</t>
+          <t>2,4; 20,88</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,77; 30,02</t>
+          <t>2,2; 21,91</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>8,17; 28,98</t>
+          <t>5,88; 29,21</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>7,58; 25,88</t>
+          <t>1,65; 14,49</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>1,51; 15,08</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>1,11; 12,74</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>10,12; 48,86</t>
         </is>
       </c>
     </row>
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>10,93%</t>
+          <t>5,69%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>10,08%</t>
+          <t>6,1%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>9,79%</t>
+          <t>5,86%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>16,61%</t>
+          <t>12,47%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>19,36%</t>
+          <t>6,64%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>18,43%</t>
+          <t>9,08%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>13,57%</t>
+          <t>8,16%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>14,37%</t>
+          <t>9,24%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>13,53%</t>
+          <t>6,2%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>7,66%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>7,03%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>10,83%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1145,1081 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,57; 14,74</t>
+          <t>3,62; 8,37</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,21; 13,79</t>
+          <t>3,82; 9,17</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,75; 13,32</t>
+          <t>3,69; 8,84</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>12,83; 21,97</t>
+          <t>8,33; 20,71</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>15,15; 23,78</t>
+          <t>4,43; 9,56</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>14,43; 23,11</t>
+          <t>6,81; 12,59</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>11,05; 16,51</t>
+          <t>5,83; 11,36</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>11,68; 17,26</t>
+          <t>6,8; 12,61</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>11,11; 16,96</t>
+          <t>4,5; 7,95</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>5,72; 9,83</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>5,28; 9,05</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>8,42; 14,92</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con grado de capacidad laboral autopercibida &lt;=7 (tasa de respuesta: 99,57%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>25187</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>20146</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>23569</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>52974</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>32548</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>41658</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>37800</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>49031</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>57736</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>61804</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>61369</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>102006</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>12817; 47319</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>9595; 38409</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>11225; 44588</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>31287; 80937</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>18662; 53714</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>26442; 62293</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>23564; 57078</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>31047; 76066</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>38081; 84770</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>42091; 85227</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>39992; 83715</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>74209; 141597</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>23989</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>24323</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>22640</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>37599</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>22395</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>27807</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>22324</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>32230</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>46384</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>52130</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>44965</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>69829</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>11946; 41689</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>12494; 39928</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>11660; 38444</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>22047; 60802</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>11013; 38766</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>16156; 44532</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>11870; 36925</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>17409; 56692</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>29272; 69830</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>35084; 73272</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>30172; 66785</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>47435; 105911</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>2170</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>39351</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>11935</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>6764</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>7054</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>17696</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>11935</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>8933</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>7054</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>57047</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 12084</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>8056; 85839</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>3207; 26467</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>1957; 17031</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1815; 18091</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>6543; 32521</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>3240; 28422</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>2428; 24307</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>1865; 21418</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>23008; 111071</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>49176</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>46639</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>46210</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>129924</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>66878</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>76228</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>67179</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>98958</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>116054</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>122867</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>113388</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>228882</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>31330; 72431</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>29164; 70054</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>29125; 69752</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>86842; 215783</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>44619; 96312</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>57159; 105693</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>47988; 93499</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>72796; 135115</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>84155; 148780</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>91668; 157602</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>85182; 145874</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>177961; 315235</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
